--- a/200-901_devasc_topic_list.xlsx
+++ b/200-901_devasc_topic_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnut\dev\scratch\devasc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2DCD7BE-10B3-492B-B8D5-381BD5D954CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6266375-BF4B-43C0-A743-563F7C305FBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="14025" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="86">
   <si>
     <t>1.8.a Clone</t>
   </si>
@@ -280,13 +280,16 @@
   </si>
   <si>
     <t>Apply concepts of model driven programmability (YANG, RESTCONF, and NETCONF) in a Cisco environment</t>
+  </si>
+  <si>
+    <t>20%   5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -314,13 +317,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -370,7 +366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +398,11 @@
         <fgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -427,7 +428,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -446,86 +447,88 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="17" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="17" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="19">
     <cellStyle name="Accent1" xfId="13" builtinId="29"/>
     <cellStyle name="Accent2" xfId="14" builtinId="33"/>
     <cellStyle name="Accent3" xfId="15" builtinId="37"/>
     <cellStyle name="Accent4" xfId="16" builtinId="41"/>
     <cellStyle name="Accent5" xfId="17" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="18" builtinId="49"/>
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -877,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946ABB5B-82C9-4DC1-8D2D-4EAAA60BD1EF}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -892,801 +895,801 @@
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1.2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>1.3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>1.4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>1.5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>1.6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>1.7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>1.8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>2.1</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>2.4</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>2.5</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>2.6</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>2.7</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>2.8</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>2.9</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>3.1</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>3.2</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>3.3</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>3.4</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>3.5</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>3.6</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>3.7</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>3.8</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>3.9</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="15" t="s">
+      <c r="A38" s="8"/>
+      <c r="B38" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="8"/>
+      <c r="B40" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>4.2</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>4.3</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="22"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="22"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="22"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="18"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="9"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>4.5</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="9"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="9"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>4.7</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="9"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>4.8</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="9"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="9"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="9"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>4.1100000000000003</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="9"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>4.12</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="9"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23">
-        <v>5</v>
-      </c>
-      <c r="B57" s="24" t="s">
+      <c r="A57" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>5.2</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>5.3</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>5.4</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>5.5</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>5.6</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+      <c r="A64" s="6">
         <v>5.7</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
+      <c r="A65" s="6">
         <v>5.8</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
+      <c r="A66" s="6">
         <v>5.9</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
+      <c r="A67" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
+      <c r="A68" s="6">
         <v>5.1100000000000003</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+      <c r="A69" s="6">
         <v>5.12</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
+      <c r="A70" s="6">
         <v>5.13</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
+      <c r="A71" s="6">
         <v>5.14</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="25">
+      <c r="A72" s="19">
         <v>6</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
+      <c r="A73" s="6">
         <v>6.1</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
+      <c r="A74" s="6">
         <v>6.2</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
+      <c r="A75" s="6">
         <v>6.3</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
+      <c r="A76" s="6">
         <v>6.4</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
+      <c r="A77" s="6">
         <v>6.5</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
+      <c r="A78" s="6">
         <v>6.6</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
+      <c r="A79" s="6">
         <v>6.7</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7">
+      <c r="A80" s="6">
         <v>6.8</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7">
+      <c r="A81" s="6">
         <v>6.9</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/200-901_devasc_topic_list.xlsx
+++ b/200-901_devasc_topic_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnut\dev\scratch\devasc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6266375-BF4B-43C0-A743-563F7C305FBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2FA2AA-8EAA-4EB3-96DD-ECED78FD7179}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="14025" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="86">
   <si>
     <t>1.8.a Clone</t>
   </si>
@@ -497,12 +497,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -519,6 +513,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946ABB5B-82C9-4DC1-8D2D-4EAAA60BD1EF}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:C41"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -895,90 +895,90 @@
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1.2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1.3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1.4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1.5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1.6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1.7</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1.8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1273,40 +1273,40 @@
       <c r="A41" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="21"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="22"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>4.2</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>4.3</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="22"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1377,20 +1377,20 @@
       <c r="A52" s="6">
         <v>4.8</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="22"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="22"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1424,10 +1424,10 @@
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="24" t="s">
         <v>51</v>
       </c>
       <c r="C57" s="7"/>
@@ -1574,10 +1574,10 @@
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="19">
+      <c r="A72" s="25">
         <v>6</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="26" t="s">
         <v>62</v>
       </c>
       <c r="C72" s="7"/>

--- a/200-901_devasc_topic_list.xlsx
+++ b/200-901_devasc_topic_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnut\dev\scratch\devasc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2FA2AA-8EAA-4EB3-96DD-ECED78FD7179}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877ADA7B-E023-4288-9769-DC93974DFED7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="14025" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>1.8.a Clone</t>
   </si>
@@ -45,9 +45,6 @@
     <t>1.8.g diff</t>
   </si>
   <si>
-    <t>15%   1.0</t>
-  </si>
-  <si>
     <t>Software Development and Design</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Utilize common version control operations with Git</t>
   </si>
   <si>
-    <t>20%   2.0</t>
-  </si>
-  <si>
     <t>Understanding and Using APIs</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>Describe parsing of common data format (XML, JSON, and YAML) to Python data structures</t>
   </si>
   <si>
-    <t>15%   3.0</t>
-  </si>
-  <si>
     <t>Cisco Platforms and Development</t>
   </si>
   <si>
@@ -283,6 +274,18 @@
   </si>
   <si>
     <t>20%   5</t>
+  </si>
+  <si>
+    <t>15%  6</t>
+  </si>
+  <si>
+    <t>20%  2</t>
+  </si>
+  <si>
+    <t>15%   1</t>
+  </si>
+  <si>
+    <t>15%   3</t>
   </si>
 </sst>
 </file>
@@ -880,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946ABB5B-82C9-4DC1-8D2D-4EAAA60BD1EF}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:B72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -893,10 +896,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>7</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="5"/>
@@ -906,7 +909,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="7"/>
@@ -916,7 +919,7 @@
         <v>1.2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="7"/>
@@ -926,7 +929,7 @@
         <v>1.3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="7"/>
@@ -936,7 +939,7 @@
         <v>1.4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="7"/>
@@ -946,7 +949,7 @@
         <v>1.5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="7"/>
@@ -956,7 +959,7 @@
         <v>1.6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="7"/>
@@ -966,7 +969,7 @@
         <v>1.7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="7"/>
@@ -976,7 +979,7 @@
         <v>1.8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="7"/>
@@ -992,7 +995,7 @@
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1039,10 +1042,10 @@
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1052,7 +1055,7 @@
         <v>2.1</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1062,7 +1065,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1072,7 +1075,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1082,7 +1085,7 @@
         <v>2.4</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1092,7 +1095,7 @@
         <v>2.5</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1102,7 +1105,7 @@
         <v>2.6</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1112,7 +1115,7 @@
         <v>2.7</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1122,7 +1125,7 @@
         <v>2.8</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1132,17 +1135,17 @@
         <v>2.9</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1152,7 +1155,7 @@
         <v>3.1</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1162,7 +1165,7 @@
         <v>3.2</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1170,7 +1173,7 @@
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1180,7 +1183,7 @@
         <v>3.3</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1190,7 +1193,7 @@
         <v>3.4</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1200,7 +1203,7 @@
         <v>3.5</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1210,7 +1213,7 @@
         <v>3.6</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1220,7 +1223,7 @@
         <v>3.7</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1230,7 +1233,7 @@
         <v>3.8</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1240,7 +1243,7 @@
         <v>3.9</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1248,7 +1251,7 @@
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1256,7 +1259,7 @@
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1264,17 +1267,17 @@
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="17"/>
@@ -1284,7 +1287,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="18"/>
@@ -1294,7 +1297,7 @@
         <v>4.2</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
@@ -1304,7 +1307,7 @@
         <v>4.3</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="18"/>
@@ -1312,7 +1315,7 @@
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="18"/>
@@ -1320,7 +1323,7 @@
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="18"/>
@@ -1328,7 +1331,7 @@
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="18"/>
@@ -1338,7 +1341,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="7"/>
@@ -1348,7 +1351,7 @@
         <v>4.5</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="7"/>
@@ -1358,7 +1361,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="7"/>
@@ -1368,7 +1371,7 @@
         <v>4.7</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="7"/>
@@ -1378,7 +1381,7 @@
         <v>4.8</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="7"/>
@@ -1388,7 +1391,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="7"/>
@@ -1398,7 +1401,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="7"/>
@@ -1408,7 +1411,7 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="7"/>
@@ -1418,17 +1421,17 @@
         <v>4.12</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -1438,7 +1441,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -1448,7 +1451,7 @@
         <v>5.2</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -1458,7 +1461,7 @@
         <v>5.3</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -1468,7 +1471,7 @@
         <v>5.4</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -1478,7 +1481,7 @@
         <v>5.5</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -1488,7 +1491,7 @@
         <v>5.6</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -1498,7 +1501,7 @@
         <v>5.7</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -1508,7 +1511,7 @@
         <v>5.8</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -1518,7 +1521,7 @@
         <v>5.9</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -1528,7 +1531,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -1538,7 +1541,7 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -1548,7 +1551,7 @@
         <v>5.12</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -1558,7 +1561,7 @@
         <v>5.13</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -1568,17 +1571,17 @@
         <v>5.14</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="25">
-        <v>6</v>
+      <c r="A72" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -1588,7 +1591,7 @@
         <v>6.1</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -1598,7 +1601,7 @@
         <v>6.2</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -1608,7 +1611,7 @@
         <v>6.3</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -1618,7 +1621,7 @@
         <v>6.4</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -1628,7 +1631,7 @@
         <v>6.5</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -1638,7 +1641,7 @@
         <v>6.6</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -1648,7 +1651,7 @@
         <v>6.7</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -1658,7 +1661,7 @@
         <v>6.8</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -1668,7 +1671,7 @@
         <v>6.9</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>

--- a/200-901_devasc_topic_list.xlsx
+++ b/200-901_devasc_topic_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnut\dev\scratch\devasc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877ADA7B-E023-4288-9769-DC93974DFED7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F25E82E-BC81-4CEB-8345-D8CC6CB1BAC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="14025" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>1.8.a Clone</t>
   </si>
@@ -108,12 +108,6 @@
     <t>Construct a Python script that uses a Cisco SDK given SDK documentation</t>
   </si>
   <si>
-    <t>Describe the capabilities of Cisco network management platforms and APIs (Meraki,</t>
-  </si>
-  <si>
-    <t>Cisco DNA Center, ACI, Cisco SD-WAN, and NSO)</t>
-  </si>
-  <si>
     <t>Describe the device level APIs and dynamic interfaces for IOS XE and NX-OS</t>
   </si>
   <si>
@@ -286,6 +280,9 @@
   </si>
   <si>
     <t>15%   3</t>
+  </si>
+  <si>
+    <t>Describe the capabilities of Cisco network management platforms and APIs (Meraki, Cisco DNA Center, ACI, Cisco SD-WAN, and NSO)</t>
   </si>
 </sst>
 </file>
@@ -500,28 +497,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -881,107 +878,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946ABB5B-82C9-4DC1-8D2D-4EAAA60BD1EF}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="90.375" customWidth="1"/>
+    <col min="2" max="2" width="103.75" customWidth="1"/>
     <col min="3" max="4" width="0.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1.2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1.3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1.4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1.5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1.6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1.7</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1.8</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -995,7 +992,7 @@
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1042,7 +1039,7 @@
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>14</v>
@@ -1142,7 +1139,7 @@
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>25</v>
@@ -1165,32 +1162,34 @@
         <v>3.2</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="6">
+        <v>3.3</v>
+      </c>
       <c r="B30" s="13" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>67</v>
@@ -1200,50 +1199,48 @@
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>3.9</v>
-      </c>
+      <c r="A37" s="8"/>
       <c r="B37" s="13" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1251,7 +1248,7 @@
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1259,440 +1256,432 @@
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="13" t="s">
+    <row r="40" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B41" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="17"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="18"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="18"/>
+        <v>4.2</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>4.2</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+        <v>4.3</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>4.3</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="20"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="9"/>
       <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+      <c r="A47" s="6">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="B47" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="18"/>
+        <v>4.8</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="25"/>
       <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="20"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="25"/>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="20"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="18"/>
       <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>4.0999999999999996</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>4.1100000000000003</v>
+        <v>4.12</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
-        <v>4.12</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="18"/>
+      <c r="A56" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="7"/>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>48</v>
+      <c r="A57" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>5.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>5.0999999999999996</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>5.1100000000000003</v>
+        <v>5.12</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>5.12</v>
+        <v>5.13</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>5.13</v>
+        <v>5.14</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
-        <v>5.14</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>58</v>
+      <c r="A71" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>59</v>
+      <c r="A72" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
-        <v>6.9</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
